--- a/StringTable.xlsx
+++ b/StringTable.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:workbookPr/>
   <s:bookViews>
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Таблица строк" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>ID раздела</t>
   </si>
@@ -52,229 +52,145 @@
     <t>0</t>
   </si>
   <si>
-    <t>Sensors</t>
-  </si>
-  <si>
-    <t>PT1</t>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Carbo-AG-2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>PT2</t>
+    <t>Carbo-AG-3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>LT01</t>
+    <t>oxi-AG-1-1</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>carbo-AG-1-1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>oxi-AG-4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>oxi-AG-5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>oxi-AG-6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>oxi-AG-7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1PT-1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1PT-2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>У1-PT-1</t>
   </si>
   <si>
-    <t>Sensor</t>
-  </si>
-  <si>
-    <t>Carbo_AG_2</t>
-  </si>
-  <si>
-    <t>Carbo_AG_3</t>
-  </si>
-  <si>
-    <t>oxi_AG_1_1</t>
-  </si>
-  <si>
-    <t>carbo_AG_1_1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>oxi_AG_4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>oxi_AG_5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>oxi_AG_6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>oxi_AG_7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>nitro_1PT_1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>nitro_1PT_2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>carbo_3PT_1</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>carbo_3PT_2</t>
+    <t>3PT-2</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>carbo_3PT_3</t>
+    <t>3PT-3</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>mix_5PT_1</t>
+    <t>5PT-1</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>oxi_2PT_1</t>
+    <t>2PT-1</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>oxi_2PT_2</t>
+    <t>2PT-2</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>carbo_3TT_1</t>
+    <t>3TT-1</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>carbo_3TT_2</t>
+    <t>3TT-2</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>carbo_T1_3IK_1</t>
+    <t>T1-3IK-1</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>carbo_T1_3IK_2</t>
+    <t>T1-3IK-2</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>steam_T2_3IK_1</t>
+    <t>T2-3IK-1</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>steam_T2_3IK_2</t>
+    <t>T2-3IK-2</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>nitro1NE_1_1TT_2</t>
+    <t>1TT-2</t>
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>oxi2NE_1_2TT_2</t>
-  </si>
-  <si>
-    <t>Carbo-AG-2</t>
-  </si>
-  <si>
-    <t>Carbo-AG-3</t>
-  </si>
-  <si>
-    <t>oxi-AG-1-1</t>
-  </si>
-  <si>
-    <t>carbo-AG-1-1</t>
-  </si>
-  <si>
-    <t>oxi-AG-4</t>
-  </si>
-  <si>
-    <t>oxi-AG-5</t>
-  </si>
-  <si>
-    <t>oxi-AG-6</t>
-  </si>
-  <si>
-    <t>oxi-AG-7</t>
-  </si>
-  <si>
-    <t>1PT-1</t>
-  </si>
-  <si>
-    <t>1PT-2</t>
-  </si>
-  <si>
-    <t>3PT-2</t>
-  </si>
-  <si>
-    <t>3PT-3</t>
-  </si>
-  <si>
-    <t>5PT-1</t>
-  </si>
-  <si>
-    <t>2PT-1</t>
-  </si>
-  <si>
-    <t>2PT-2</t>
-  </si>
-  <si>
-    <t>3TT-1</t>
-  </si>
-  <si>
-    <t>3TT-2</t>
-  </si>
-  <si>
-    <t>T1-3IK-1</t>
-  </si>
-  <si>
-    <t>T1-3IK-2</t>
-  </si>
-  <si>
-    <t>T2-3IK-1</t>
-  </si>
-  <si>
-    <t>T2-3IK-2</t>
-  </si>
-  <si>
-    <t>1TT-2</t>
   </si>
   <si>
     <t>2TT-2</t>
@@ -287,10 +203,11 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,7 +234,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -325,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,7 +282,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -399,7 +316,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -434,10 +350,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -615,10 +530,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -676,6 +591,9 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -687,6 +605,9 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -698,6 +619,9 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -710,10 +634,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -724,13 +648,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,13 +662,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,13 +676,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,13 +690,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,13 +718,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -808,13 +732,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -822,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,13 +760,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -850,13 +774,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -864,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -878,13 +802,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -892,13 +816,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -906,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -920,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -934,13 +858,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -948,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -962,13 +886,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -976,405 +900,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
         <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
